--- a/spisy/2015/20-prehled-o-mestskych-firmach/dozorci-rady.xlsx
+++ b/spisy/2015/20-prehled-o-mestskych-firmach/dozorci-rady.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Zábranský\Dropbox\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="podrobnosti" sheetId="1" r:id="rId1"/>
-    <sheet name="celkem" sheetId="2" r:id="rId2"/>
+    <sheet name="podrobnosti" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="statistika" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="185">
   <si>
     <t>Firma</t>
   </si>
@@ -544,10 +540,13 @@
     <t>ODS</t>
   </si>
   <si>
-    <t>zastupitel</t>
+    <t>zastupitel (bílý text na libovolném pozadí)</t>
   </si>
   <si>
     <t>člen nominovaný jiným akcionářem</t>
+  </si>
+  <si>
+    <t>černý text na bílém pozadí – nestraník a nekandidát za žádnou stranu (z informací, které máme k dispozici)</t>
   </si>
   <si>
     <t>ANO (44)</t>
@@ -577,8 +576,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -587,7 +589,25 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -615,7 +635,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -630,7 +650,7 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -638,12 +658,25 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -715,7 +748,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -723,57 +756,209 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="42">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -832,33 +1017,14 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF4B1F6F"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="cs-CZ"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -870,7 +1036,10 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="cs-CZ" sz="1300">
+              <a:rPr b="1" sz="1300">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
               <a:t>Počet členů dozorčích rad podle stran</a:t>
@@ -879,9 +1048,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="1"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -897,9 +1064,9 @@
               <a:noFill/>
             </a:ln>
           </c:spPr>
+          <c:explosion val="0"/>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="003366"/>
@@ -911,10 +1078,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF950E"/>
+                <a:srgbClr val="ff950e"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -923,10 +1089,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="579D1C"/>
+                <a:srgbClr val="579d1c"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -935,10 +1100,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="4B1F6F"/>
+                <a:srgbClr val="4b1f6f"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -947,10 +1111,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="0084D1"/>
+                <a:srgbClr val="0084d1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -959,10 +1122,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF8080"/>
+                <a:srgbClr val="ff8080"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -971,10 +1133,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="FF0000"/>
+                <a:srgbClr val="ff0000"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -983,10 +1144,9 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="AEA79F"/>
+                <a:srgbClr val="aea79f"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -994,27 +1154,88 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>celkem!$A$1:$H$1</c:f>
+              <c:f>statistika!$A$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -1046,7 +1267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>celkem!$A$2:$H$2</c:f>
+              <c:f>statistika!$A$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1078,29 +1299,19 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
+            <a:srgbClr val="b3b3b3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1110,48 +1321,41 @@
       </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1212120</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:colOff>738000</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Graf 1"/>
+        <xdr:cNvPr id="0" name="Graf 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4208760" y="3779640"/>
+        <a:ext cx="4758840" cy="3634200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1164,297 +1368,39 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
-  <a:themeElements>
-    <a:clrScheme name="Kancelář">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Kancelář">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36.90625"/>
-    <col min="2" max="3" width="16.08984375"/>
-    <col min="4" max="4" width="16.26953125"/>
-    <col min="5" max="5" width="21.26953125"/>
-    <col min="6" max="6" width="17.26953125"/>
-    <col min="7" max="7" width="18.36328125"/>
-    <col min="8" max="8" width="17.90625"/>
-    <col min="9" max="9" width="18.54296875"/>
-    <col min="10" max="10" width="19.6328125"/>
-    <col min="11" max="11" width="18.81640625"/>
-    <col min="12" max="12" width="12.36328125"/>
-    <col min="13" max="13" width="12"/>
-    <col min="14" max="14" width="13"/>
-    <col min="15" max="15" width="16.08984375"/>
-    <col min="16" max="16" width="8.36328125"/>
-    <col min="17" max="17" width="13.7265625"/>
-    <col min="18" max="1025" width="8.54296875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2704081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2704081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5408163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8163265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.3673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9948979591837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0051020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.36224489795918"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.54081632653061"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,11 +1411,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0" t="n">
         <v>77020</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1519,11 +1465,11 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>340</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -1549,11 +1495,11 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>50</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1577,11 +1523,11 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>7860</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1613,11 +1559,11 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>1640</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1645,11 +1591,11 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1677,11 +1623,11 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>2130</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1713,11 +1659,11 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>12050</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1755,7 +1701,7 @@
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
@@ -1782,11 +1728,11 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>8960</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1818,7 +1764,7 @@
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1845,7 +1791,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -1872,7 +1818,7 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
@@ -1899,11 +1845,11 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>42570</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1941,11 +1887,11 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>66750</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -1975,11 +1921,11 @@
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>1380</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -2007,11 +1953,11 @@
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>1720</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2047,7 +1993,7 @@
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" customFormat="false" ht="14.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
@@ -2074,11 +2020,11 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>520</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2116,11 +2062,11 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C21" s="12" t="s">
@@ -2146,11 +2092,11 @@
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>3240</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -2188,11 +2134,11 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>100</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2230,11 +2176,11 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>4640</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2266,11 +2212,11 @@
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>6100</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2302,11 +2248,11 @@
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>22780</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -2340,11 +2286,11 @@
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>12290</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2376,11 +2322,11 @@
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>19350</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2411,11 +2357,11 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>3440</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2446,10 +2392,10 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21"/>
-      <c r="B30">
-        <f>SUM(B2:B29)</f>
+      <c r="B30" s="0" t="n">
+        <f aca="false">SUM(B2:B29)</f>
         <v>295030</v>
       </c>
       <c r="C30" s="22"/>
@@ -2457,7 +2403,7 @@
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
@@ -2465,147 +2411,168 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B33" s="21"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="24"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="25" t="s">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="26" t="s">
         <v>169</v>
       </c>
       <c r="B35" s="25"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="26"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="27" t="s">
+      <c r="B36" s="25"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="27"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="28"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="B38" s="25"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="29"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="30" t="s">
+      <c r="B39" s="25"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B40" s="30"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
+      <c r="B41" s="32"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="B41" s="31"/>
+      <c r="B42" s="25"/>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.90625"/>
-    <col min="2" max="2" width="19.1796875"/>
-    <col min="3" max="3" width="17.36328125"/>
-    <col min="4" max="4" width="18.1796875"/>
-    <col min="5" max="5" width="16.08984375"/>
-    <col min="6" max="6" width="22.90625"/>
-    <col min="7" max="7" width="12.453125"/>
-    <col min="8" max="8" width="21.1796875"/>
-    <col min="9" max="1025" width="8.54296875"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0918367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9132653061224"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4540816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54081632653061"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="33" t="s">
+    <row r="1" s="41" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="C1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="D1" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="39" t="s">
         <v>182</v>
       </c>
+      <c r="G1" s="40" t="s">
+        <v>183</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="1" t="n">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I2" s="0" t="n">
+        <f aca="false">SUM(A2:H2)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>35</v>
       </c>
@@ -2631,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -2651,7 +2618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
@@ -2668,7 +2635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -2685,7 +2652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2702,7 +2669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2719,7 +2686,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2736,7 +2703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2753,7 +2720,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -2770,7 +2737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2784,7 +2751,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2798,7 +2765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2779,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2826,7 +2793,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
@@ -2840,7 +2807,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
@@ -2854,7 +2821,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
@@ -2868,7 +2835,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -2882,7 +2849,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2863,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
@@ -2904,7 +2871,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>161</v>
       </c>
@@ -2912,7 +2879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -2920,7 +2887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -2928,7 +2895,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2936,114 +2903,119 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/spisy/2015/20-prehled-o-mestskych-firmach/dozorci-rady.xlsx
+++ b/spisy/2015/20-prehled-o-mestskych-firmach/dozorci-rady.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="965" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="podrobnosti" sheetId="1" state="visible" r:id="rId2"/>
@@ -555,10 +555,10 @@
     <t>ČSSD (23)</t>
   </si>
   <si>
-    <t>Trojkoalice (18)</t>
-  </si>
-  <si>
-    <t>TOP 09 (9)</t>
+    <t>Trojkoalice (19)</t>
+  </si>
+  <si>
+    <t>TOP 09 (8)</t>
   </si>
   <si>
     <t>ODS (2)</t>
@@ -592,19 +592,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -674,8 +671,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -781,7 +777,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -879,10 +875,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,7 +1014,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1154,79 +1146,6 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-            </c:dLbl>
-            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1245,10 +1164,10 @@
                   <c:v>ČSSD (23)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Trojkoalice (18)</c:v>
+                  <c:v>Trojkoalice (19)</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>TOP 09 (9)</c:v>
+                  <c:v>TOP 09 (8)</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ODS (2)</c:v>
@@ -1278,10 +1197,10 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
@@ -1338,15 +1257,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>41040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>738000</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:colOff>764640</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1354,8 +1273,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4208760" y="3779640"/>
-        <a:ext cx="4758840" cy="3634200"/>
+        <a:off x="5328000" y="3586680"/>
+        <a:ext cx="5809320" cy="3809160"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1375,29 +1294,29 @@
   </sheetPr>
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2704081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8163265306122"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9948979591837"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.0051020408163"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0918367346939"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.36224489795918"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.9068825910931"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2672064777328"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2753036437247"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.9109311740891"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.5465587044534"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.6396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.8178137651822"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.3684210526316"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9959514170041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.004048582996"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.36437246963563"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1542,7 @@
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1639,7 +1558,7 @@
       <c r="E8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="6" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2428,53 +2347,53 @@
       <c r="A34" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="25"/>
+      <c r="B34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B35" s="25"/>
+      <c r="B35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="B36" s="25"/>
+      <c r="B36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="B38" s="25"/>
+      <c r="B38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="B39" s="25"/>
+      <c r="B39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="32"/>
+      <c r="B41" s="31"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="33" t="s">
+      <c r="A42" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="B42" s="25"/>
+      <c r="B42" s="22"/>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -2499,43 +2418,43 @@
   </sheetPr>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0918367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9132653061224"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4540816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1821862348178"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3603238866397"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.1821862348178"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.914979757085"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.4534412955466"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
-    <row r="1" s="41" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="40" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="39" t="s">
         <v>183</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2550,10 +2469,10 @@
         <v>23</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>2</v>
@@ -2652,7 +2571,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>42</v>
       </c>
@@ -2663,13 +2582,13 @@
         <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2680,13 +2599,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2697,13 +2616,13 @@
         <v>47</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -2714,13 +2633,13 @@
         <v>39</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -2730,14 +2649,11 @@
       <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="H11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -2751,7 +2667,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -2765,7 +2681,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -2779,7 +2695,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
@@ -2793,7 +2709,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>92</v>
       </c>
@@ -2807,7 +2723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
         <v>94</v>
       </c>
@@ -2821,7 +2737,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
         <v>92</v>
       </c>
@@ -2835,7 +2751,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -2849,7 +2765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2863,15 +2779,18 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>161</v>
       </c>
@@ -2879,7 +2798,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>45</v>
       </c>
@@ -2887,7 +2806,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>52</v>
       </c>
@@ -2895,7 +2814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -2903,12 +2822,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>79</v>
       </c>
@@ -2918,92 +2837,92 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
